--- a/color.xlsx
+++ b/color.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usr\local\teluhiko\GitTest\Color\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="435" yWindow="255" windowWidth="25305" windowHeight="12105" activeTab="9"/>
+    <workbookView xWindow="1410" yWindow="255" windowWidth="25305" windowHeight="12105" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="5RPO" sheetId="24" r:id="rId1"/>
@@ -28,7 +33,7 @@
     <sheet name="5P" sheetId="29" r:id="rId19"/>
     <sheet name="5RP" sheetId="30" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5033,7 +5038,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -5654,6 +5659,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5662,15 +5676,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5945,7 +5950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8827,7 +8832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -11767,74 +11772,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="32" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" thickBot="1">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="48">
+      <c r="C1" s="45">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="48">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45">
         <v>1</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="48">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="45">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45">
         <v>3</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="48">
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="45">
         <v>4</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="48">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="45">
         <v>6</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48">
+      <c r="S1" s="46"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="45">
         <v>8</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="48">
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="45">
         <v>10</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="48">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="45">
         <v>12</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="48">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="45">
         <v>14</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="50"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="45">
+      <c r="A2" s="48">
         <v>9</v>
       </c>
       <c r="B2" s="15">
@@ -11899,7 +11904,7 @@
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -11932,8 +11937,8 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A4" s="50"/>
       <c r="B4" s="17"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -11967,7 +11972,7 @@
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="45">
+      <c r="A5" s="48">
         <f>A2-1</f>
         <v>8</v>
       </c>
@@ -12060,7 +12065,7 @@
       <c r="AF5" s="3"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="19"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -12093,8 +12098,8 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A7" s="50"/>
       <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -12128,7 +12133,7 @@
       <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="45">
+      <c r="A8" s="48">
         <f t="shared" ref="A8" si="2">A5-1</f>
         <v>7</v>
       </c>
@@ -12230,7 +12235,7 @@
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="19"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -12263,8 +12268,8 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A10" s="50"/>
       <c r="B10" s="17"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -12298,7 +12303,7 @@
       <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="45">
+      <c r="A11" s="48">
         <f t="shared" ref="A11" si="4">A8-1</f>
         <v>6</v>
       </c>
@@ -12418,7 +12423,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -12451,8 +12456,8 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A13" s="50"/>
       <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -12486,7 +12491,7 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="45">
+      <c r="A14" s="48">
         <f t="shared" ref="A14" si="6">A11-1</f>
         <v>5</v>
       </c>
@@ -12615,7 +12620,7 @@
       </c>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="19"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -12648,8 +12653,8 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A16" s="50"/>
       <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -12683,7 +12688,7 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="45">
+      <c r="A17" s="48">
         <f t="shared" ref="A17" si="8">A14-1</f>
         <v>4</v>
       </c>
@@ -12812,7 +12817,7 @@
       </c>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="19"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -12845,8 +12850,8 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A19" s="50"/>
       <c r="B19" s="17"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -12880,7 +12885,7 @@
       <c r="AF19" s="11"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="45">
+      <c r="A20" s="48">
         <f t="shared" ref="A20" si="10">A17-1</f>
         <v>3</v>
       </c>
@@ -13000,7 +13005,7 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="19"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -13033,8 +13038,8 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A22" s="50"/>
       <c r="B22" s="17"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -13068,7 +13073,7 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="45">
+      <c r="A23" s="48">
         <f t="shared" ref="A23" si="12">A20-1</f>
         <v>2</v>
       </c>
@@ -13161,7 +13166,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -13194,8 +13199,8 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A25" s="50"/>
       <c r="B25" s="17"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -13229,7 +13234,7 @@
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="45">
+      <c r="A26" s="48">
         <f t="shared" ref="A26" si="14">A23-1</f>
         <v>1</v>
       </c>
@@ -13277,7 +13282,7 @@
       <c r="AF26" s="14"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -13310,8 +13315,8 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A28" s="50"/>
       <c r="B28" s="17"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -13346,6 +13351,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
@@ -13356,15 +13370,6 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13380,70 +13385,70 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="32" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" thickBot="1">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="48">
+      <c r="C1" s="45">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="48">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45">
         <v>1</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="48">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="45">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45">
         <v>3</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="48">
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="45">
         <v>4</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="48">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="45">
         <v>6</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48">
+      <c r="S1" s="46"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="45">
         <v>8</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="48">
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="45">
         <v>10</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="48">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="45">
         <v>12</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="48">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="45">
         <v>14</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="50"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="45">
+      <c r="A2" s="48">
         <v>9</v>
       </c>
       <c r="B2" s="15">
@@ -13508,7 +13513,7 @@
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -13541,8 +13546,8 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A4" s="50"/>
       <c r="B4" s="17"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -13576,7 +13581,7 @@
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="45">
+      <c r="A5" s="48">
         <f>A2-1</f>
         <v>8</v>
       </c>
@@ -13669,7 +13674,7 @@
       <c r="AF5" s="3"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="19"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -13702,8 +13707,8 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A7" s="50"/>
       <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -13737,7 +13742,7 @@
       <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="45">
+      <c r="A8" s="48">
         <f t="shared" ref="A8" si="2">A5-1</f>
         <v>7</v>
       </c>
@@ -13866,7 +13871,7 @@
       </c>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="19"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -13899,8 +13904,8 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A10" s="50"/>
       <c r="B10" s="17"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -13934,7 +13939,7 @@
       <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="45">
+      <c r="A11" s="48">
         <f t="shared" ref="A11" si="4">A8-1</f>
         <v>6</v>
       </c>
@@ -14054,7 +14059,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -14087,8 +14092,8 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A13" s="50"/>
       <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -14122,7 +14127,7 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="45">
+      <c r="A14" s="48">
         <f t="shared" ref="A14" si="6">A11-1</f>
         <v>5</v>
       </c>
@@ -14233,7 +14238,7 @@
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="19"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -14266,8 +14271,8 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A16" s="50"/>
       <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -14301,7 +14306,7 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="45">
+      <c r="A17" s="48">
         <f t="shared" ref="A17" si="8">A14-1</f>
         <v>4</v>
       </c>
@@ -14403,7 +14408,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="19"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -14436,8 +14441,8 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A19" s="50"/>
       <c r="B19" s="17"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -14471,7 +14476,7 @@
       <c r="AF19" s="11"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="45">
+      <c r="A20" s="48">
         <f t="shared" ref="A20" si="10">A17-1</f>
         <v>3</v>
       </c>
@@ -14564,7 +14569,7 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="19"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -14597,8 +14602,8 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A22" s="50"/>
       <c r="B22" s="17"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -14632,7 +14637,7 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="45">
+      <c r="A23" s="48">
         <f t="shared" ref="A23" si="12">A20-1</f>
         <v>2</v>
       </c>
@@ -14716,7 +14721,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -14749,8 +14754,8 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A25" s="50"/>
       <c r="B25" s="17"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -14784,7 +14789,7 @@
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="45">
+      <c r="A26" s="48">
         <f t="shared" ref="A26" si="14">A23-1</f>
         <v>1</v>
       </c>
@@ -14832,7 +14837,7 @@
       <c r="AF26" s="14"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -14865,8 +14870,8 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A28" s="50"/>
       <c r="B28" s="17"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -14901,11 +14906,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
@@ -14913,13 +14920,11 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14935,70 +14940,70 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="32" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" thickBot="1">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>900</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="48">
+      <c r="C1" s="45">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="48">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45">
         <v>1</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="48">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="45">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45">
         <v>3</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="48">
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="45">
         <v>4</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="48">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="45">
         <v>6</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48">
+      <c r="S1" s="46"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="45">
         <v>8</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="48">
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="45">
         <v>10</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="48">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="45">
         <v>12</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="48">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="45">
         <v>14</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="50"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="45">
+      <c r="A2" s="48">
         <v>9</v>
       </c>
       <c r="B2" s="15">
@@ -15090,7 +15095,7 @@
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -15123,8 +15128,8 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A4" s="50"/>
       <c r="B4" s="17"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -15158,7 +15163,7 @@
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="45">
+      <c r="A5" s="48">
         <f>A2-1</f>
         <v>8</v>
       </c>
@@ -15287,7 +15292,7 @@
       </c>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="19"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -15320,8 +15325,8 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A7" s="50"/>
       <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -15355,7 +15360,7 @@
       <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="45">
+      <c r="A8" s="48">
         <f t="shared" ref="A8" si="4">A5-1</f>
         <v>7</v>
       </c>
@@ -15475,7 +15480,7 @@
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="19"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -15508,8 +15513,8 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A10" s="50"/>
       <c r="B10" s="17"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -15543,7 +15548,7 @@
       <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="45">
+      <c r="A11" s="48">
         <f t="shared" ref="A11" si="6">A8-1</f>
         <v>6</v>
       </c>
@@ -15645,7 +15650,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -15678,8 +15683,8 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A13" s="50"/>
       <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -15713,7 +15718,7 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="45">
+      <c r="A14" s="48">
         <f t="shared" ref="A14" si="8">A11-1</f>
         <v>5</v>
       </c>
@@ -15806,7 +15811,7 @@
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="19"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -15839,8 +15844,8 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A16" s="50"/>
       <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -15874,7 +15879,7 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="45">
+      <c r="A17" s="48">
         <f t="shared" ref="A17" si="10">A14-1</f>
         <v>4</v>
       </c>
@@ -15958,7 +15963,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="19"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -15991,8 +15996,8 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A19" s="50"/>
       <c r="B19" s="17"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -16026,7 +16031,7 @@
       <c r="AF19" s="11"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="45">
+      <c r="A20" s="48">
         <f t="shared" ref="A20" si="12">A17-1</f>
         <v>3</v>
       </c>
@@ -16101,7 +16106,7 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="19"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -16134,8 +16139,8 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A22" s="50"/>
       <c r="B22" s="17"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -16169,7 +16174,7 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="45">
+      <c r="A23" s="48">
         <f t="shared" ref="A23" si="14">A20-1</f>
         <v>2</v>
       </c>
@@ -16235,7 +16240,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -16268,8 +16273,8 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A25" s="50"/>
       <c r="B25" s="17"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -16303,7 +16308,7 @@
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="45">
+      <c r="A26" s="48">
         <f t="shared" ref="A26" si="16">A23-1</f>
         <v>1</v>
       </c>
@@ -16351,7 +16356,7 @@
       <c r="AF26" s="14"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -16384,8 +16389,8 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A28" s="50"/>
       <c r="B28" s="17"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -16420,11 +16425,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
@@ -16432,13 +16439,11 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16454,70 +16459,70 @@
       <selection activeCell="AH27" sqref="AH27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="32" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" thickBot="1">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="48">
+      <c r="C1" s="45">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="48">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45">
         <v>1</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="48">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="45">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45">
         <v>3</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="48">
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="45">
         <v>4</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="48">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="45">
         <v>6</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48">
+      <c r="S1" s="46"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="45">
         <v>8</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="48">
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="45">
         <v>10</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="48">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="45">
         <v>12</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="48">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="45">
         <v>14</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="50"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="45">
+      <c r="A2" s="48">
         <v>9</v>
       </c>
       <c r="B2" s="15">
@@ -16600,7 +16605,7 @@
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -16633,8 +16638,8 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A4" s="50"/>
       <c r="B4" s="17"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -16668,7 +16673,7 @@
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="45">
+      <c r="A5" s="48">
         <f>A2-1</f>
         <v>8</v>
       </c>
@@ -16770,7 +16775,7 @@
       <c r="AF5" s="14"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="19"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -16803,8 +16808,8 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A7" s="50"/>
       <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -16838,7 +16843,7 @@
       <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="45">
+      <c r="A8" s="48">
         <f t="shared" ref="A8" si="2">A5-1</f>
         <v>7</v>
       </c>
@@ -16958,7 +16963,7 @@
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="19"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -16991,8 +16996,8 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A10" s="50"/>
       <c r="B10" s="17"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -17026,7 +17031,7 @@
       <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="45">
+      <c r="A11" s="48">
         <f t="shared" ref="A11" si="4">A8-1</f>
         <v>6</v>
       </c>
@@ -17137,7 +17142,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -17170,8 +17175,8 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A13" s="50"/>
       <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -17205,7 +17210,7 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="45">
+      <c r="A14" s="48">
         <f t="shared" ref="A14" si="6">A11-1</f>
         <v>5</v>
       </c>
@@ -17307,7 +17312,7 @@
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="19"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -17340,8 +17345,8 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A16" s="50"/>
       <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -17375,7 +17380,7 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="45">
+      <c r="A17" s="48">
         <f t="shared" ref="A17" si="8">A14-1</f>
         <v>4</v>
       </c>
@@ -17468,7 +17473,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="19"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -17501,8 +17506,8 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A19" s="50"/>
       <c r="B19" s="17"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -17536,7 +17541,7 @@
       <c r="AF19" s="11"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="45">
+      <c r="A20" s="48">
         <f t="shared" ref="A20" si="10">A17-1</f>
         <v>3</v>
       </c>
@@ -17620,7 +17625,7 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="19"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -17653,8 +17658,8 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A22" s="50"/>
       <c r="B22" s="17"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -17688,7 +17693,7 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="45">
+      <c r="A23" s="48">
         <f t="shared" ref="A23" si="12">A20-1</f>
         <v>2</v>
       </c>
@@ -17754,7 +17759,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -17787,8 +17792,8 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A25" s="50"/>
       <c r="B25" s="17"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -17822,7 +17827,7 @@
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="45">
+      <c r="A26" s="48">
         <f t="shared" ref="A26" si="14">A23-1</f>
         <v>1</v>
       </c>
@@ -17870,7 +17875,7 @@
       <c r="AF26" s="14"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -17903,8 +17908,8 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A28" s="50"/>
       <c r="B28" s="17"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -17939,6 +17944,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
@@ -17946,18 +17963,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17973,70 +17978,70 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="32" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" thickBot="1">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="48">
+      <c r="C1" s="45">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="48">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45">
         <v>1</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="48">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="45">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45">
         <v>3</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="48">
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="45">
         <v>4</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="48">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="45">
         <v>6</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48">
+      <c r="S1" s="46"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="45">
         <v>8</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="48">
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="45">
         <v>10</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="48">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="45">
         <v>12</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="48">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="45">
         <v>14</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="50"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="45">
+      <c r="A2" s="48">
         <v>9</v>
       </c>
       <c r="B2" s="15">
@@ -18101,7 +18106,7 @@
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -18134,8 +18139,8 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A4" s="50"/>
       <c r="B4" s="17"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -18169,7 +18174,7 @@
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="45">
+      <c r="A5" s="48">
         <f>A2-1</f>
         <v>8</v>
       </c>
@@ -18253,7 +18258,7 @@
       <c r="AF5" s="14"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="19"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -18286,8 +18291,8 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A7" s="50"/>
       <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -18321,7 +18326,7 @@
       <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="45">
+      <c r="A8" s="48">
         <f t="shared" ref="A8" si="2">A5-1</f>
         <v>7</v>
       </c>
@@ -18423,7 +18428,7 @@
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="19"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -18456,8 +18461,8 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A10" s="50"/>
       <c r="B10" s="17"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -18491,7 +18496,7 @@
       <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="45">
+      <c r="A11" s="48">
         <f t="shared" ref="A11" si="4">A8-1</f>
         <v>6</v>
       </c>
@@ -18593,7 +18598,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -18626,8 +18631,8 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A13" s="50"/>
       <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -18661,7 +18666,7 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="45">
+      <c r="A14" s="48">
         <f t="shared" ref="A14" si="6">A11-1</f>
         <v>5</v>
       </c>
@@ -18772,7 +18777,7 @@
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="19"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -18805,8 +18810,8 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A16" s="50"/>
       <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -18840,7 +18845,7 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="45">
+      <c r="A17" s="48">
         <f t="shared" ref="A17" si="8">A14-1</f>
         <v>4</v>
       </c>
@@ -18951,7 +18956,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="19"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -18984,8 +18989,8 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A19" s="50"/>
       <c r="B19" s="17"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -19019,7 +19024,7 @@
       <c r="AF19" s="11"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="45">
+      <c r="A20" s="48">
         <f t="shared" ref="A20" si="10">A17-1</f>
         <v>3</v>
       </c>
@@ -19121,7 +19126,7 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="19"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -19154,8 +19159,8 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A22" s="50"/>
       <c r="B22" s="17"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -19189,7 +19194,7 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="45">
+      <c r="A23" s="48">
         <f t="shared" ref="A23" si="12">A20-1</f>
         <v>2</v>
       </c>
@@ -19282,7 +19287,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -19315,8 +19320,8 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A25" s="50"/>
       <c r="B25" s="17"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -19350,7 +19355,7 @@
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="45">
+      <c r="A26" s="48">
         <f t="shared" ref="A26" si="14">A23-1</f>
         <v>1</v>
       </c>
@@ -19398,7 +19403,7 @@
       <c r="AF26" s="14"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -19431,8 +19436,8 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A28" s="50"/>
       <c r="B28" s="17"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -19467,6 +19472,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
@@ -19474,18 +19491,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19501,70 +19506,70 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="32" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" thickBot="1">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1305</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="48">
+      <c r="C1" s="45">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="48">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45">
         <v>1</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="48">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="45">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45">
         <v>3</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="48">
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="45">
         <v>4</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="48">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="45">
         <v>6</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48">
+      <c r="S1" s="46"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="45">
         <v>8</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="48">
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="45">
         <v>10</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="48">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="45">
         <v>12</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="48">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="45">
         <v>14</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="50"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="45">
+      <c r="A2" s="48">
         <v>9</v>
       </c>
       <c r="B2" s="15">
@@ -19629,7 +19634,7 @@
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -19662,8 +19667,8 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A4" s="50"/>
       <c r="B4" s="17"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -19697,7 +19702,7 @@
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="45">
+      <c r="A5" s="48">
         <f>A2-1</f>
         <v>8</v>
       </c>
@@ -19781,7 +19786,7 @@
       <c r="AF5" s="14"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="19"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -19814,8 +19819,8 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A7" s="50"/>
       <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -19849,7 +19854,7 @@
       <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="45">
+      <c r="A8" s="48">
         <f t="shared" ref="A8" si="2">A5-1</f>
         <v>7</v>
       </c>
@@ -19942,7 +19947,7 @@
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="19"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -19975,8 +19980,8 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A10" s="50"/>
       <c r="B10" s="17"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -20010,7 +20015,7 @@
       <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="45">
+      <c r="A11" s="48">
         <f t="shared" ref="A11" si="4">A8-1</f>
         <v>6</v>
       </c>
@@ -20112,7 +20117,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -20145,8 +20150,8 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A13" s="50"/>
       <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -20180,7 +20185,7 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="45">
+      <c r="A14" s="48">
         <f t="shared" ref="A14" si="6">A11-1</f>
         <v>5</v>
       </c>
@@ -20282,7 +20287,7 @@
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="19"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -20315,8 +20320,8 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A16" s="50"/>
       <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -20350,7 +20355,7 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="45">
+      <c r="A17" s="48">
         <f t="shared" ref="A17" si="8">A14-1</f>
         <v>4</v>
       </c>
@@ -20452,7 +20457,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="19"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -20485,8 +20490,8 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A19" s="50"/>
       <c r="B19" s="17"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -20520,7 +20525,7 @@
       <c r="AF19" s="11"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="45">
+      <c r="A20" s="48">
         <f t="shared" ref="A20" si="10">A17-1</f>
         <v>3</v>
       </c>
@@ -20622,7 +20627,7 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="19"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -20655,8 +20660,8 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A22" s="50"/>
       <c r="B22" s="17"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -20690,7 +20695,7 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="45">
+      <c r="A23" s="48">
         <f t="shared" ref="A23" si="12">A20-1</f>
         <v>2</v>
       </c>
@@ -20783,7 +20788,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -20816,8 +20821,8 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A25" s="50"/>
       <c r="B25" s="17"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -20851,7 +20856,7 @@
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="45">
+      <c r="A26" s="48">
         <f t="shared" ref="A26" si="14">A23-1</f>
         <v>1</v>
       </c>
@@ -20899,7 +20904,7 @@
       <c r="AF26" s="14"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -20932,8 +20937,8 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A28" s="50"/>
       <c r="B28" s="17"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -20968,6 +20973,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
@@ -20975,18 +20992,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21002,70 +21007,70 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="32" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" thickBot="1">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1518</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="48">
+      <c r="C1" s="45">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="48">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45">
         <v>1</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="48">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="45">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45">
         <v>3</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="48">
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="45">
         <v>4</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="48">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="45">
         <v>6</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48">
+      <c r="S1" s="46"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="45">
         <v>8</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="48">
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="45">
         <v>10</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="48">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="45">
         <v>12</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="48">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="45">
         <v>14</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="50"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="45">
+      <c r="A2" s="48">
         <v>9</v>
       </c>
       <c r="B2" s="15">
@@ -21130,7 +21135,7 @@
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -21163,8 +21168,8 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A4" s="50"/>
       <c r="B4" s="17"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -21198,7 +21203,7 @@
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="45">
+      <c r="A5" s="48">
         <f>A2-1</f>
         <v>8</v>
       </c>
@@ -21282,7 +21287,7 @@
       <c r="AF5" s="14"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="19"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -21315,8 +21320,8 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A7" s="50"/>
       <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -21350,7 +21355,7 @@
       <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="45">
+      <c r="A8" s="48">
         <f t="shared" ref="A8" si="2">A5-1</f>
         <v>7</v>
       </c>
@@ -21443,7 +21448,7 @@
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="19"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -21476,8 +21481,8 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A10" s="50"/>
       <c r="B10" s="17"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -21511,7 +21516,7 @@
       <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="45">
+      <c r="A11" s="48">
         <f t="shared" ref="A11" si="4">A8-1</f>
         <v>6</v>
       </c>
@@ -21613,7 +21618,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -21646,8 +21651,8 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A13" s="50"/>
       <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -21681,7 +21686,7 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="45">
+      <c r="A14" s="48">
         <f t="shared" ref="A14" si="6">A11-1</f>
         <v>5</v>
       </c>
@@ -21783,7 +21788,7 @@
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="19"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -21816,8 +21821,8 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A16" s="50"/>
       <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -21851,7 +21856,7 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="45">
+      <c r="A17" s="48">
         <f t="shared" ref="A17" si="8">A14-1</f>
         <v>4</v>
       </c>
@@ -21953,7 +21958,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="19"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -21986,8 +21991,8 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A19" s="50"/>
       <c r="B19" s="17"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -22021,7 +22026,7 @@
       <c r="AF19" s="11"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="45">
+      <c r="A20" s="48">
         <f t="shared" ref="A20" si="10">A17-1</f>
         <v>3</v>
       </c>
@@ -22123,7 +22128,7 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="19"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -22156,8 +22161,8 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A22" s="50"/>
       <c r="B22" s="17"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -22191,7 +22196,7 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="45">
+      <c r="A23" s="48">
         <f t="shared" ref="A23" si="12">A20-1</f>
         <v>2</v>
       </c>
@@ -22284,7 +22289,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -22317,8 +22322,8 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A25" s="50"/>
       <c r="B25" s="17"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -22352,7 +22357,7 @@
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="45">
+      <c r="A26" s="48">
         <f t="shared" ref="A26" si="14">A23-1</f>
         <v>1</v>
       </c>
@@ -22400,7 +22405,7 @@
       <c r="AF26" s="14"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -22433,8 +22438,8 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A28" s="50"/>
       <c r="B28" s="17"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -22469,11 +22474,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
@@ -22481,13 +22488,11 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22503,70 +22508,70 @@
       <selection activeCell="U23" sqref="U23:W23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="32" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" thickBot="1">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1519</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="48">
+      <c r="C1" s="45">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="48">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45">
         <v>1</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="48">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="45">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45">
         <v>3</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="48">
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="45">
         <v>4</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="48">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="45">
         <v>6</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48">
+      <c r="S1" s="46"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="45">
         <v>8</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="48">
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="45">
         <v>10</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="48">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="45">
         <v>12</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="48">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="45">
         <v>14</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="50"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="45">
+      <c r="A2" s="48">
         <v>9</v>
       </c>
       <c r="B2" s="15">
@@ -22631,7 +22636,7 @@
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -22664,8 +22669,8 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A4" s="50"/>
       <c r="B4" s="17"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -22699,7 +22704,7 @@
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="45">
+      <c r="A5" s="48">
         <f>A2-1</f>
         <v>8</v>
       </c>
@@ -22783,7 +22788,7 @@
       <c r="AF5" s="14"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="19"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -22816,8 +22821,8 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A7" s="50"/>
       <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -22851,7 +22856,7 @@
       <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="45">
+      <c r="A8" s="48">
         <f t="shared" ref="A8" si="2">A5-1</f>
         <v>7</v>
       </c>
@@ -22953,7 +22958,7 @@
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="19"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -22986,8 +22991,8 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A10" s="50"/>
       <c r="B10" s="17"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -23021,7 +23026,7 @@
       <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="45">
+      <c r="A11" s="48">
         <f t="shared" ref="A11" si="4">A8-1</f>
         <v>6</v>
       </c>
@@ -23132,7 +23137,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -23165,8 +23170,8 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A13" s="50"/>
       <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -23200,7 +23205,7 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="45">
+      <c r="A14" s="48">
         <f t="shared" ref="A14" si="6">A11-1</f>
         <v>5</v>
       </c>
@@ -23320,7 +23325,7 @@
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="19"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -23353,8 +23358,8 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A16" s="50"/>
       <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -23388,7 +23393,7 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="45">
+      <c r="A17" s="48">
         <f t="shared" ref="A17" si="8">A14-1</f>
         <v>4</v>
       </c>
@@ -23508,7 +23513,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="19"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -23541,8 +23546,8 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A19" s="50"/>
       <c r="B19" s="17"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -23576,7 +23581,7 @@
       <c r="AF19" s="11"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="45">
+      <c r="A20" s="48">
         <f t="shared" ref="A20" si="10">A17-1</f>
         <v>3</v>
       </c>
@@ -23696,7 +23701,7 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="19"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -23729,8 +23734,8 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A22" s="50"/>
       <c r="B22" s="17"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -23764,7 +23769,7 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="45">
+      <c r="A23" s="48">
         <f t="shared" ref="A23" si="12">A20-1</f>
         <v>2</v>
       </c>
@@ -23866,7 +23871,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -23899,8 +23904,8 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A25" s="50"/>
       <c r="B25" s="17"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -23934,7 +23939,7 @@
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="45">
+      <c r="A26" s="48">
         <f t="shared" ref="A26" si="14">A23-1</f>
         <v>1</v>
       </c>
@@ -23982,7 +23987,7 @@
       <c r="AF26" s="14"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -24015,8 +24020,8 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A28" s="50"/>
       <c r="B28" s="17"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -24051,6 +24056,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
@@ -24058,18 +24075,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24085,70 +24090,70 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="32" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" thickBot="1">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1658</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="48">
+      <c r="C1" s="45">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="48">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45">
         <v>1</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="48">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="45">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45">
         <v>3</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="48">
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="45">
         <v>4</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="48">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="45">
         <v>6</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48">
+      <c r="S1" s="46"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="45">
         <v>8</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="48">
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="45">
         <v>10</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="48">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="45">
         <v>12</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="48">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="45">
         <v>14</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="50"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="45">
+      <c r="A2" s="48">
         <v>9</v>
       </c>
       <c r="B2" s="15">
@@ -24213,7 +24218,7 @@
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -24246,8 +24251,8 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A4" s="50"/>
       <c r="B4" s="17"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -24281,7 +24286,7 @@
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="45">
+      <c r="A5" s="48">
         <f>A2-1</f>
         <v>8</v>
       </c>
@@ -24365,7 +24370,7 @@
       <c r="AF5" s="14"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="19"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -24398,8 +24403,8 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A7" s="50"/>
       <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -24433,7 +24438,7 @@
       <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="45">
+      <c r="A8" s="48">
         <f t="shared" ref="A8" si="2">A5-1</f>
         <v>7</v>
       </c>
@@ -24526,7 +24531,7 @@
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="19"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -24559,8 +24564,8 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A10" s="50"/>
       <c r="B10" s="17"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -24594,7 +24599,7 @@
       <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="45">
+      <c r="A11" s="48">
         <f t="shared" ref="A11" si="4">A8-1</f>
         <v>6</v>
       </c>
@@ -24696,7 +24701,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -24729,8 +24734,8 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A13" s="50"/>
       <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -24764,7 +24769,7 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="45">
+      <c r="A14" s="48">
         <f t="shared" ref="A14" si="6">A11-1</f>
         <v>5</v>
       </c>
@@ -24875,7 +24880,7 @@
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="19"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -24908,8 +24913,8 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A16" s="50"/>
       <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -24943,7 +24948,7 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="45">
+      <c r="A17" s="48">
         <f t="shared" ref="A17" si="8">A14-1</f>
         <v>4</v>
       </c>
@@ -25054,7 +25059,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="19"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -25087,8 +25092,8 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A19" s="50"/>
       <c r="B19" s="17"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -25122,7 +25127,7 @@
       <c r="AF19" s="11"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="45">
+      <c r="A20" s="48">
         <f t="shared" ref="A20" si="10">A17-1</f>
         <v>3</v>
       </c>
@@ -25233,7 +25238,7 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="19"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -25266,8 +25271,8 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A22" s="50"/>
       <c r="B22" s="17"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -25301,7 +25306,7 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="45">
+      <c r="A23" s="48">
         <f t="shared" ref="A23" si="12">A20-1</f>
         <v>2</v>
       </c>
@@ -25403,7 +25408,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -25436,8 +25441,8 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A25" s="50"/>
       <c r="B25" s="17"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -25471,7 +25476,7 @@
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="45">
+      <c r="A26" s="48">
         <f t="shared" ref="A26" si="14">A23-1</f>
         <v>1</v>
       </c>
@@ -25519,7 +25524,7 @@
       <c r="AF26" s="14"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -25552,8 +25557,8 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A28" s="50"/>
       <c r="B28" s="17"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -25588,6 +25593,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
@@ -25595,18 +25612,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28284,70 +28289,70 @@
       <selection activeCell="U23" sqref="U23:W23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="32" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" thickBot="1">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1659</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="48">
+      <c r="C1" s="45">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="48">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45">
         <v>1</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="48">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="45">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45">
         <v>3</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="48">
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="45">
         <v>4</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="48">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="45">
         <v>6</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48">
+      <c r="S1" s="46"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="45">
         <v>8</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="48">
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="45">
         <v>10</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="48">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="45">
         <v>12</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="48">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="45">
         <v>14</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="50"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="45">
+      <c r="A2" s="48">
         <v>9</v>
       </c>
       <c r="B2" s="15">
@@ -28412,7 +28417,7 @@
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -28445,8 +28450,8 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A4" s="50"/>
       <c r="B4" s="17"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -28480,7 +28485,7 @@
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="45">
+      <c r="A5" s="48">
         <f>A2-1</f>
         <v>8</v>
       </c>
@@ -28573,7 +28578,7 @@
       <c r="AF5" s="14"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="19"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -28606,8 +28611,8 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A7" s="50"/>
       <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -28641,7 +28646,7 @@
       <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="45">
+      <c r="A8" s="48">
         <f t="shared" ref="A8" si="2">A5-1</f>
         <v>7</v>
       </c>
@@ -28752,7 +28757,7 @@
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="19"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -28785,8 +28790,8 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A10" s="50"/>
       <c r="B10" s="17"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -28820,7 +28825,7 @@
       <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="45">
+      <c r="A11" s="48">
         <f t="shared" ref="A11" si="4">A8-1</f>
         <v>6</v>
       </c>
@@ -28940,7 +28945,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -28973,8 +28978,8 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A13" s="50"/>
       <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -29008,7 +29013,7 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="45">
+      <c r="A14" s="48">
         <f t="shared" ref="A14" si="6">A11-1</f>
         <v>5</v>
       </c>
@@ -29128,7 +29133,7 @@
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="19"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -29161,8 +29166,8 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A16" s="50"/>
       <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -29196,7 +29201,7 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="45">
+      <c r="A17" s="48">
         <f t="shared" ref="A17" si="8">A14-1</f>
         <v>4</v>
       </c>
@@ -29316,7 +29321,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="19"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -29349,8 +29354,8 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A19" s="50"/>
       <c r="B19" s="17"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -29384,7 +29389,7 @@
       <c r="AF19" s="11"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="45">
+      <c r="A20" s="48">
         <f t="shared" ref="A20" si="10">A17-1</f>
         <v>3</v>
       </c>
@@ -29495,7 +29500,7 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="19"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -29528,8 +29533,8 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A22" s="50"/>
       <c r="B22" s="17"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -29563,7 +29568,7 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="45">
+      <c r="A23" s="48">
         <f t="shared" ref="A23" si="12">A20-1</f>
         <v>2</v>
       </c>
@@ -29656,7 +29661,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -29689,8 +29694,8 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A25" s="50"/>
       <c r="B25" s="17"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -29724,7 +29729,7 @@
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="45">
+      <c r="A26" s="48">
         <f t="shared" ref="A26" si="14">A23-1</f>
         <v>1</v>
       </c>
@@ -29772,7 +29777,7 @@
       <c r="AF26" s="14"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -29805,8 +29810,8 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="14.25" thickBot="1">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A28" s="50"/>
       <c r="B28" s="17"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -29841,6 +29846,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
@@ -29848,18 +29865,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40320,7 +40325,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="14.25">
+    <row r="55" spans="2:12" ht="18.75">
       <c r="B55" s="36" t="s">
         <v>444</v>
       </c>
@@ -40355,7 +40360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="14.25">
+    <row r="56" spans="2:12" ht="18.75">
       <c r="B56" s="36" t="s">
         <v>82</v>
       </c>
@@ -40390,7 +40395,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="14.25">
+    <row r="57" spans="2:12" ht="18.75">
       <c r="B57" s="36" t="s">
         <v>87</v>
       </c>
@@ -40425,7 +40430,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="14.25">
+    <row r="58" spans="2:12" ht="18.75">
       <c r="B58" s="36" t="s">
         <v>92</v>
       </c>
@@ -40460,7 +40465,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="14.25">
+    <row r="59" spans="2:12" ht="18.75">
       <c r="B59" s="36" t="s">
         <v>98</v>
       </c>
@@ -40495,7 +40500,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="14.25">
+    <row r="60" spans="2:12" ht="18.75">
       <c r="B60" s="36" t="s">
         <v>104</v>
       </c>
@@ -40530,7 +40535,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="14.25">
+    <row r="61" spans="2:12" ht="18.75">
       <c r="B61" s="36" t="s">
         <v>109</v>
       </c>
